--- a/Modelos/Data.xlsx
+++ b/Modelos/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\GestionActivos\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07A2337-9F54-41CD-949A-E18F350C6ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1492A366-3DE1-4FD2-A304-E8CD429A0B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{B8960A0D-777E-4A4F-BCE6-C156DAF6248D}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="3" xr2:uid="{B8960A0D-777E-4A4F-BCE6-C156DAF6248D}"/>
   </bookViews>
   <sheets>
     <sheet name="C_MMaterial" sheetId="1" r:id="rId1"/>
@@ -1050,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD53D63-81D0-48B5-9AC7-B9377B7912FB}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0.02</v>
@@ -1088,127 +1088,141 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C3">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D3">
-        <v>1.0999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>4.8000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C4">
-        <v>5.7000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D4">
-        <v>1.7999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>5.3999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D5">
-        <v>2.5000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>6.0999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C6">
-        <v>0.06</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D6">
-        <v>2.9000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>6.7000000000000004E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="C7">
-        <v>6.2E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D7">
-        <v>3.9E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>7.1999999999999995E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="C8">
-        <v>6.4000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D8">
-        <v>4.7E-2</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>7.5999999999999998E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C9">
-        <v>6.5000000000000002E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D9">
-        <v>5.5E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="C10">
-        <v>6.7000000000000004E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D10">
-        <v>6.4000000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
+        <v>0.08</v>
+      </c>
+      <c r="C11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D11">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
